--- a/data/sector_em.xlsx
+++ b/data/sector_em.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163F83C-1C21-4580-913A-837C16CED4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3007E1-2D2E-4CB2-88A4-7ECA5F8E19C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="27">
   <si>
     <t>Forma</t>
   </si>
@@ -55,12 +63,6 @@
     <t>Gasolina</t>
   </si>
   <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
     <t>Outros</t>
   </si>
   <si>
@@ -79,9 +81,6 @@
     <t>#d3ede9</t>
   </si>
   <si>
-    <t>#e3e1ed</t>
-  </si>
-  <si>
     <t>#e7f2d3</t>
   </si>
   <si>
@@ -100,9 +99,6 @@
     <t>#8DD3C7</t>
   </si>
   <si>
-    <t>#BEBADA</t>
-  </si>
-  <si>
     <t>#B3DE69</t>
   </si>
   <si>
@@ -110,6 +106,9 @@
   </si>
   <si>
     <t>#FB8072</t>
+  </si>
+  <si>
+    <t>Gasóleo</t>
   </si>
 </sst>
 </file>
@@ -511,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,16 +552,16 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>45327.367763343347</v>
+        <v>45327.367763343354</v>
       </c>
       <c r="C2">
-        <v>2395764.438853777</v>
+        <v>2342649.3323795572</v>
       </c>
       <c r="D2">
         <v>4444244.4952763794</v>
       </c>
       <c r="E2">
-        <v>3851517.176709156</v>
+        <v>3904632.2831833754</v>
       </c>
       <c r="F2">
         <v>23945653.651074249</v>
@@ -571,10 +570,10 @@
         <v>2008</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>298005611.48948443</v>
+        <v>298005611.48948437</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -600,27 +599,27 @@
         <v>2008</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>7841526.9051182549</v>
+        <v>7841526.9051182531</v>
       </c>
       <c r="C4">
-        <v>8569845.5822599921</v>
+        <v>8382021.8414492086</v>
       </c>
       <c r="D4">
-        <v>806136393.65558159</v>
+        <v>806136393.65558147</v>
       </c>
       <c r="E4">
-        <v>20668474.578818191</v>
+        <v>20856298.319628973</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -629,27 +628,27 @@
         <v>2008</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>367589.57792290905</v>
       </c>
       <c r="C5">
-        <v>1636880.225119147</v>
+        <v>1644603.8908217947</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24529642.594060794</v>
       </c>
       <c r="E5">
-        <v>98772502.52244091</v>
+        <v>99173759.333862975</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -658,143 +657,143 @@
         <v>2008</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>367589.57792290911</v>
+        <v>2043401.8737914735</v>
       </c>
       <c r="C6">
-        <v>170967.830750244</v>
+        <v>12136537.529183866</v>
       </c>
       <c r="D6">
-        <v>28237256.861021452</v>
+        <v>59059852.54690282</v>
       </c>
       <c r="E6">
-        <v>298798.82568844722</v>
+        <v>835405928.4123764</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>272204032.59200138</v>
       </c>
       <c r="G6">
         <v>2008</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>2046431.8536387209</v>
+        <v>1195911.7684717106</v>
       </c>
       <c r="C7">
-        <v>65575363.956461906</v>
+        <v>32401955.502437882</v>
       </c>
       <c r="D7">
-        <v>59147427.176883221</v>
+        <v>2285963.0593592757</v>
       </c>
       <c r="E7">
-        <v>819060407.21365964</v>
+        <v>90782712.785193607</v>
       </c>
       <c r="F7">
-        <v>272607659.86849147</v>
+        <v>122182020.16093814</v>
       </c>
       <c r="G7">
         <v>2008</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1195782.0600369519</v>
+        <v>29670.616885047122</v>
       </c>
       <c r="C8">
-        <v>32480215.781581178</v>
+        <v>2813216.8405159363</v>
       </c>
       <c r="D8">
-        <v>2285715.1241033799</v>
+        <v>5157253.6269036178</v>
       </c>
       <c r="E8">
-        <v>90691091.912960514</v>
+        <v>2862842.9936057087</v>
       </c>
       <c r="F8">
-        <v>122168768.3149337</v>
+        <v>23870019.991890755</v>
       </c>
       <c r="G8">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>29670.616885047119</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2853194.6732646888</v>
+        <v>772505.90274253627</v>
       </c>
       <c r="D9">
-        <v>5157253.6269036178</v>
+        <v>334726572.61932623</v>
       </c>
       <c r="E9">
-        <v>2822865.1608569562</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>23870019.991890751</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2009</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7636040.2764753737</v>
       </c>
       <c r="C10">
-        <v>772505.90274253627</v>
+        <v>13364966.899350449</v>
       </c>
       <c r="D10">
-        <v>334726572.61932617</v>
+        <v>1232736867.831825</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>13016317.082331477</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -803,10 +802,10 @@
         <v>2009</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,16 +813,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7636040.2764753737</v>
+        <v>26748.634619266562</v>
       </c>
       <c r="C11">
-        <v>13885703.709247829</v>
+        <v>390412.307168208</v>
       </c>
       <c r="D11">
-        <v>1232736867.831825</v>
+        <v>23308626.201659951</v>
       </c>
       <c r="E11">
-        <v>12495580.272434089</v>
+        <v>20577391.19350734</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -832,10 +831,10 @@
         <v>2009</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -843,28 +842,28 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1777970.3942422871</v>
       </c>
       <c r="C12">
-        <v>390412.307168208</v>
+        <v>61258981.545449063</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>67211583.815953061</v>
       </c>
       <c r="E12">
-        <v>20577391.19350734</v>
+        <v>896620647.24220788</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>320496493.14240265</v>
       </c>
       <c r="G12">
         <v>2009</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,106 +871,106 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>26748.634619266559</v>
+        <v>659376.05322405964</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>32693309.822694551</v>
       </c>
       <c r="D13">
-        <v>26831685.89228306</v>
+        <v>839312.70611965936</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>80076733.924832329</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>116941916.63679424</v>
       </c>
       <c r="G13">
         <v>2009</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>39763.038613604047</v>
+      </c>
+      <c r="C14">
+        <v>5524786.7105077608</v>
+      </c>
+      <c r="D14">
+        <v>4895930.4378837803</v>
+      </c>
+      <c r="E14">
+        <v>28331207.100232877</v>
+      </c>
+      <c r="F14">
+        <v>-1796686.1801824167</v>
+      </c>
+      <c r="G14">
+        <v>2010</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1778714.3848355389</v>
-      </c>
-      <c r="C14">
-        <v>71688077.424118042</v>
-      </c>
-      <c r="D14">
-        <v>67239708.460929513</v>
-      </c>
-      <c r="E14">
-        <v>885721741.1014899</v>
-      </c>
-      <c r="F14">
-        <v>320630604.69838852</v>
-      </c>
-      <c r="G14">
-        <v>2009</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>812762.5885705878</v>
+      </c>
+      <c r="D15">
+        <v>334691213.0232895</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2010</v>
+      </c>
+      <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>659090.29978820961</v>
-      </c>
-      <c r="C15">
-        <v>32881695.185846809</v>
-      </c>
-      <c r="D15">
-        <v>838948.97363596712</v>
-      </c>
-      <c r="E15">
-        <v>79839477.470131829</v>
-      </c>
-      <c r="F15">
-        <v>116891237.5829971</v>
-      </c>
-      <c r="G15">
-        <v>2009</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>39763.038613604047</v>
+        <v>3487629.9584576981</v>
       </c>
       <c r="C16">
-        <v>5757011.0994618004</v>
+        <v>6118291.4632825619</v>
       </c>
       <c r="D16">
-        <v>4895930.4378837803</v>
+        <v>1098789854.6242812</v>
       </c>
       <c r="E16">
-        <v>28098982.71127883</v>
+        <v>23435771.565896288</v>
       </c>
       <c r="F16">
-        <v>1796686.1801824169</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>2010</v>
@@ -980,24 +979,24 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>479294.94956247584</v>
       </c>
       <c r="C17">
-        <v>812762.5885705878</v>
+        <v>2228539.0856437441</v>
       </c>
       <c r="D17">
-        <v>334691213.0232895</v>
+        <v>654386.47605724458</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>67791198.362305447</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1009,27 +1008,27 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>3487629.9584576981</v>
+        <v>1153543.6754043738</v>
       </c>
       <c r="C18">
-        <v>7019537.3424770683</v>
+        <v>42791282.896538235</v>
       </c>
       <c r="D18">
-        <v>1098789854.6242809</v>
+        <v>50195967.435391277</v>
       </c>
       <c r="E18">
-        <v>22534525.686701789</v>
+        <v>631849332.90708315</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>231843829.863581</v>
       </c>
       <c r="G18">
         <v>2010</v>
@@ -1038,27 +1037,27 @@
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>369065.53972530004</v>
       </c>
       <c r="C19">
-        <v>2228539.0856437441</v>
+        <v>32751927.985182129</v>
       </c>
       <c r="D19">
-        <v>262421.46832337283</v>
+        <v>930348.45998028014</v>
       </c>
       <c r="E19">
-        <v>67790227.048092589</v>
+        <v>92245764.450736746</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>130594048.71845806</v>
       </c>
       <c r="G19">
         <v>2010</v>
@@ -1067,120 +1066,120 @@
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>479284.75708257838</v>
+        <v>18138.493926302042</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6618916.106099043</v>
       </c>
       <c r="D20">
-        <v>451209.86013034813</v>
+        <v>4502160.5409335243</v>
       </c>
       <c r="E20">
-        <v>963.16022895206402</v>
+        <v>24308414.821729943</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>83253.045734388725</v>
       </c>
       <c r="G20">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
         <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>1154111.9799780371</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>48991880.192084163</v>
+        <v>633664.48630029347</v>
       </c>
       <c r="D21">
-        <v>50220647.217706397</v>
+        <v>466184240.10340893</v>
       </c>
       <c r="E21">
-        <v>625291143.78792512</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>231958049.99385989</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
         <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>368985.74177076481</v>
+        <v>7641636.6707406901</v>
       </c>
       <c r="C22">
-        <v>32905336.93011177</v>
+        <v>7128409.9417829309</v>
       </c>
       <c r="D22">
-        <v>930147.30355650047</v>
+        <v>1267847092.7956281</v>
       </c>
       <c r="E22">
-        <v>92065328.977712795</v>
+        <v>7218841.9816865167</v>
       </c>
       <c r="F22">
-        <v>130565812.1673838</v>
+        <v>8757188.1740037836</v>
       </c>
       <c r="G22">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
         <v>22</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>18138.493926302039</v>
+        <v>310561.59360596206</v>
       </c>
       <c r="C23">
-        <v>6786487.4603732219</v>
+        <v>4347663.6515783332</v>
       </c>
       <c r="D23">
-        <v>4502160.5409335243</v>
+        <v>4773.8303336995205</v>
       </c>
       <c r="E23">
-        <v>24140843.467455771</v>
+        <v>49674952.556142434</v>
       </c>
       <c r="F23">
-        <v>83253.045734388725</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>2011</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
@@ -1188,28 +1187,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1235129.4846890722</v>
       </c>
       <c r="C24">
-        <v>633664.48630029347</v>
+        <v>54145931.661618099</v>
       </c>
       <c r="D24">
-        <v>466184240.10340887</v>
+        <v>52201254.224082127</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>705849405.55756462</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>257327049.36847311</v>
       </c>
       <c r="G24">
         <v>2011</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
@@ -1217,28 +1216,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>7641636.6707406892</v>
+        <v>418007.99705472722</v>
       </c>
       <c r="C25">
-        <v>7354297.6242150227</v>
+        <v>18113423.22426131</v>
       </c>
       <c r="D25">
-        <v>1267847092.795629</v>
+        <v>5302078.083866125</v>
       </c>
       <c r="E25">
-        <v>6992954.299254423</v>
+        <v>101365598.40814474</v>
       </c>
       <c r="F25">
-        <v>8757188.1740037836</v>
+        <v>105479239.14290832</v>
       </c>
       <c r="G25">
         <v>2011</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
@@ -1246,524 +1245,524 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>5378.5612490698804</v>
       </c>
       <c r="C26">
-        <v>4347663.6515783332</v>
+        <v>2125771.1135948822</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4717453.9273156142</v>
       </c>
       <c r="E26">
-        <v>49673863.766318411</v>
+        <v>25830425.745031904</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>6611790.1655343007</v>
       </c>
       <c r="G26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>310561.59360596212</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>107896.01847671057</v>
       </c>
       <c r="D27">
-        <v>5495.3867683440012</v>
+        <v>376563864.0469625</v>
       </c>
       <c r="E27">
-        <v>1088.7898240327679</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>1235341.8434535351</v>
+        <v>11441855.469374521</v>
       </c>
       <c r="C28">
-        <v>65305827.018400311</v>
+        <v>1184595.025942361</v>
       </c>
       <c r="D28">
-        <v>52210180.360639296</v>
+        <v>1050778184.3143939</v>
       </c>
       <c r="E28">
-        <v>694392289.33879721</v>
+        <v>5998843.9037915263</v>
       </c>
       <c r="F28">
-        <v>257371292.2231245</v>
+        <v>8004820.879146832</v>
       </c>
       <c r="G28">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>418143.42081187241</v>
+        <v>404221.07402185764</v>
       </c>
       <c r="C29">
-        <v>18848064.51654131</v>
+        <v>2787810.1337552834</v>
       </c>
       <c r="D29">
-        <v>5303795.8197464263</v>
+        <v>81.223238388959999</v>
       </c>
       <c r="E29">
-        <v>100669665.2222251</v>
+        <v>32776174.62256569</v>
       </c>
       <c r="F29">
-        <v>105513411.6825874</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>5378.5612490698804</v>
+        <v>2868206.0207515825</v>
       </c>
       <c r="C30">
-        <v>2162164.2063854039</v>
+        <v>45562127.491439112</v>
       </c>
       <c r="D30">
-        <v>4717453.9273156142</v>
+        <v>50212154.093444489</v>
       </c>
       <c r="E30">
-        <v>25794032.652241379</v>
+        <v>756805505.34074056</v>
       </c>
       <c r="F30">
-        <v>6611790.1655343017</v>
+        <v>258968002.89138633</v>
       </c>
       <c r="G30">
         <v>2012</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>405099.37315314729</v>
       </c>
       <c r="C31">
-        <v>107896.0184767106</v>
+        <v>49912757.158891894</v>
       </c>
       <c r="D31">
-        <v>376563864.04696262</v>
+        <v>5115759.6075248532</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>109124860.16264054</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>102148348.69214721</v>
       </c>
       <c r="G31">
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>11441855.469374521</v>
+        <v>7143.356305429561</v>
       </c>
       <c r="C32">
-        <v>1550934.635442385</v>
+        <v>1569068.2546402896</v>
       </c>
       <c r="D32">
-        <v>1050778184.314394</v>
+        <v>4272516.5842247223</v>
       </c>
       <c r="E32">
-        <v>5632504.2942915009</v>
+        <v>1786059.6757394352</v>
       </c>
       <c r="F32">
-        <v>8004820.879146832</v>
+        <v>21176144.514437694</v>
       </c>
       <c r="G32">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2787810.133755283</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>171699785.98405433</v>
       </c>
       <c r="E33">
-        <v>32775630.227653671</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>404221.07402185758</v>
+        <v>3569199.3298371006</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>381064.15169546724</v>
       </c>
       <c r="D34">
-        <v>93.499994412000007</v>
+        <v>508239382.70902908</v>
       </c>
       <c r="E34">
-        <v>544.39491201638396</v>
+        <v>1461600.0892970208</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1130754.3976794719</v>
       </c>
       <c r="G34">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>2868265.194172123</v>
+        <v>222005.81549021986</v>
       </c>
       <c r="C35">
-        <v>67694855.981405824</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>50213136.545564011</v>
+        <v>750348.13655060495</v>
       </c>
       <c r="E35">
-        <v>734412611.11164057</v>
+        <v>85398.435119910238</v>
       </c>
       <c r="F35">
-        <v>258973345.6116899</v>
+        <v>157.03699385088001</v>
       </c>
       <c r="G35">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>404967.56207728398</v>
+        <v>3463650.5294866096</v>
       </c>
       <c r="C36">
-        <v>52671540.861867778</v>
+        <v>31486148.595019054</v>
       </c>
       <c r="D36">
-        <v>5114095.0436612321</v>
+        <v>45291959.804384843</v>
       </c>
       <c r="E36">
-        <v>106314328.8618377</v>
+        <v>656079711.61663151</v>
       </c>
       <c r="F36">
-        <v>102115111.7023342</v>
+        <v>218227555.32131472</v>
       </c>
       <c r="G36">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>7143.356305429561</v>
+        <v>340678.59297120007</v>
       </c>
       <c r="C37">
-        <v>1621637.6679062929</v>
+        <v>17717658.64749144</v>
       </c>
       <c r="D37">
-        <v>4272516.5842247223</v>
+        <v>5067486.2607652806</v>
       </c>
       <c r="E37">
-        <v>21860458.310658399</v>
+        <v>100948888.82015789</v>
       </c>
       <c r="F37">
-        <v>1064844.8276248139</v>
+        <v>92872218.734388739</v>
       </c>
       <c r="G37">
         <v>2013</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>7564.2367053837615</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1192058.1054785568</v>
       </c>
       <c r="D38">
-        <v>171699785.9840543</v>
+        <v>3468980.4325025077</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1663380.2957114058</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>20880747.428762253</v>
       </c>
       <c r="G38">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>3569199.329837101</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>736638.11356114992</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>508239382.70902908</v>
+        <v>176325680.76670891</v>
       </c>
       <c r="E39">
-        <v>1106026.127431338</v>
+        <v>9.7572362469120026</v>
       </c>
       <c r="F39">
-        <v>1130754.3976794721</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4253788.4538872931</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>726956.98560228746</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>537317867.19307554</v>
       </c>
       <c r="E40">
-        <v>85398.435119910238</v>
+        <v>1043222.1441860988</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1174377.3991435694</v>
       </c>
       <c r="G40">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>222005.81549021989</v>
+        <v>193883.10717475813</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>863761.99676461215</v>
+        <v>1709906.374355458</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>560571.39045103686</v>
       </c>
       <c r="F41">
-        <v>157.03699385088001</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>3413681.8361426452</v>
+        <v>3312252.791274251</v>
       </c>
       <c r="C42">
-        <v>52409663.863099121</v>
+        <v>29186646.045279562</v>
       </c>
       <c r="D42">
-        <v>44638513.714302152</v>
+        <v>38748157.191253759</v>
       </c>
       <c r="E42">
-        <v>624987946.68753624</v>
+        <v>642587881.36791265</v>
       </c>
       <c r="F42">
-        <v>215079274.1369915</v>
+        <v>208177152.07609141</v>
       </c>
       <c r="G42">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>340530.14913983998</v>
+        <v>318921.23697984003</v>
       </c>
       <c r="C43">
-        <v>19845148.78006215</v>
+        <v>70159699.500865921</v>
       </c>
       <c r="D43">
-        <v>5063122.9516412159</v>
+        <v>5601293.0968896002</v>
       </c>
       <c r="E43">
-        <v>98498561.164109603</v>
+        <v>96065573.908455417</v>
       </c>
       <c r="F43">
-        <v>91007113.408443928</v>
+        <v>101057264.56102464</v>
       </c>
       <c r="G43">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,28 +1770,28 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>7564.2367053837615</v>
+        <v>5561.4265262913596</v>
       </c>
       <c r="C44">
-        <v>1236526.2967013039</v>
+        <v>1546047.5480745188</v>
       </c>
       <c r="D44">
-        <v>3468980.4325025082</v>
+        <v>3965593.1808374315</v>
       </c>
       <c r="E44">
-        <v>1618912.104488658</v>
+        <v>1761155.1665559378</v>
       </c>
       <c r="F44">
-        <v>20880747.42876225</v>
+        <v>20084044.052636534</v>
       </c>
       <c r="G44">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1806,225 +1805,225 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>176325680.76670891</v>
+        <v>173956979.90239388</v>
       </c>
       <c r="E45">
-        <v>9.7572362469120026</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>4253788.4538872931</v>
+        <v>4375140.6371349888</v>
       </c>
       <c r="C46">
-        <v>955078.10429236945</v>
+        <v>4961958.5888764476</v>
       </c>
       <c r="D46">
-        <v>537317867.19307578</v>
+        <v>567522417.3328439</v>
       </c>
       <c r="E46">
-        <v>815101.02549601696</v>
+        <v>550067.56812831049</v>
       </c>
       <c r="F46">
-        <v>1174377.3991435689</v>
+        <v>161664.37872903107</v>
       </c>
       <c r="G46">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1474705.8630114712</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1573930.8129789464</v>
       </c>
       <c r="E47">
-        <v>560571.39045103674</v>
+        <v>418648.31225444161</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>193883.1071747581</v>
+        <v>2346199.1839278159</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>35191633.721611135</v>
       </c>
       <c r="D48">
-        <v>1968355.8501037201</v>
+        <v>46475692.505467676</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>818085157.77881312</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>263088886.17382437</v>
       </c>
       <c r="G48">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>3272714.5921930471</v>
+        <v>216589.41489240003</v>
       </c>
       <c r="C49">
-        <v>50004290.840778187</v>
+        <v>60773703.149016008</v>
       </c>
       <c r="D49">
-        <v>38285576.510894239</v>
+        <v>5914392.1413192004</v>
       </c>
       <c r="E49">
-        <v>613196675.47463429</v>
+        <v>94941219.460705206</v>
       </c>
       <c r="F49">
-        <v>205692151.624246</v>
+        <v>94754652.340946406</v>
       </c>
       <c r="G49">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>318850.67918404797</v>
+        <v>2351.1249928476004</v>
       </c>
       <c r="C50">
-        <v>70492747.893001646</v>
+        <v>1938421.2831463034</v>
       </c>
       <c r="D50">
-        <v>5600053.87275312</v>
+        <v>3499971.7430563755</v>
       </c>
       <c r="E50">
-        <v>95685348.093725845</v>
+        <v>2781128.3382987385</v>
       </c>
       <c r="F50">
-        <v>101034906.7591306</v>
+        <v>17596481.244617574</v>
       </c>
       <c r="G50">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>5561.4265262913596</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1561396.620867331</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>3965593.1808374319</v>
+        <v>187282218.87051314</v>
       </c>
       <c r="E51">
-        <v>1697872.1701435139</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>20084044.05263653</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3031070.3571329182</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>847677.97309557931</v>
       </c>
       <c r="D52">
-        <v>173956979.90239391</v>
+        <v>602188902.77116871</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2762148.624953629</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>56693.089155923029</v>
       </c>
       <c r="G52">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2032,28 +2031,28 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>4375140.6371349879</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>4794536.8583383486</v>
+        <v>186688.91126039473</v>
       </c>
       <c r="D53">
-        <v>567522417.33284378</v>
+        <v>1098845.6112240625</v>
       </c>
       <c r="E53">
-        <v>224284.75187145249</v>
+        <v>37149.542218170725</v>
       </c>
       <c r="F53">
-        <v>161664.3787290311</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2061,28 +2060,28 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>6767254.5170968007</v>
       </c>
       <c r="C54">
-        <v>1474705.863011471</v>
+        <v>34251665.102752164</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>49128904.130101442</v>
       </c>
       <c r="E54">
-        <v>418648.31225444161</v>
+        <v>763224605.78454638</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>248738981.57565495</v>
       </c>
       <c r="G54">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2090,289 +2089,202 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>222900.62651999999</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>68664109.344435006</v>
       </c>
       <c r="D55">
-        <v>1811827.811071476</v>
+        <v>3718582.567425</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>94516295.470245004</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>82912603.239675</v>
       </c>
       <c r="G55">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>2307.5856411282002</v>
+      </c>
+      <c r="C56">
+        <v>1132139.2496423186</v>
+      </c>
+      <c r="D56">
+        <v>3009149.7285001324</v>
+      </c>
+      <c r="E56">
+        <v>1774057.3277821203</v>
+      </c>
+      <c r="F56">
+        <v>15965317.166555077</v>
+      </c>
+      <c r="G56">
+        <v>2017</v>
+      </c>
+      <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="B56">
-        <v>2388807.8455177681</v>
-      </c>
-      <c r="C56">
-        <v>62240340.297330067</v>
-      </c>
-      <c r="D56">
-        <v>47319724.447721168</v>
-      </c>
-      <c r="E56">
-        <v>806616993.89086461</v>
-      </c>
-      <c r="F56">
-        <v>267866769.2264863</v>
-      </c>
-      <c r="G56">
-        <v>2015</v>
-      </c>
-      <c r="H56" t="s">
-        <v>21</v>
-      </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>174126527.03639153</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2017</v>
+      </c>
+      <c r="H57" t="s">
         <v>15</v>
       </c>
-      <c r="B57">
-        <v>214406.91476424001</v>
-      </c>
-      <c r="C57">
-        <v>60481855.530177847</v>
-      </c>
-      <c r="D57">
-        <v>5854794.761581921</v>
-      </c>
-      <c r="E57">
-        <v>93663979.140869275</v>
-      </c>
-      <c r="F57">
-        <v>93799840.948244661</v>
-      </c>
-      <c r="G57">
-        <v>2015</v>
-      </c>
-      <c r="H57" t="s">
-        <v>22</v>
-      </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>2351.1249928476</v>
+        <v>4065497.7203092691</v>
       </c>
       <c r="C58">
-        <v>1986395.8434941859</v>
+        <v>862533.64820476412</v>
       </c>
       <c r="D58">
-        <v>3499971.743056376</v>
+        <v>592435102.44499004</v>
       </c>
       <c r="E58">
-        <v>2733153.7779508559</v>
+        <v>444181.05923404981</v>
       </c>
       <c r="F58">
-        <v>17596481.24461757</v>
+        <v>101592.89259734603</v>
       </c>
       <c r="G58">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>157.03699385087998</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>908440.83074534824</v>
       </c>
       <c r="D59">
-        <v>187282218.87051311</v>
+        <v>2492416.2932036268</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>49419.20100728736</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>3031070.3571329182</v>
+        <v>4221857.7104334123</v>
       </c>
       <c r="C60">
-        <v>2246666.4918950582</v>
+        <v>42043612.480553262</v>
       </c>
       <c r="D60">
-        <v>602188902.77116883</v>
+        <v>91508137.473465338</v>
       </c>
       <c r="E60">
-        <v>1363160.1061541501</v>
+        <v>910083246.36825383</v>
       </c>
       <c r="F60">
-        <v>56693.089155923029</v>
+        <v>304990829.08998048</v>
       </c>
       <c r="G60">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>284412.62633850001</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>71801007.007652998</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>3514542.7631489998</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>99213926.174154043</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>92607065.873090997</v>
       </c>
       <c r="G61">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>186688.9112603947</v>
-      </c>
-      <c r="D62">
-        <v>1098845.611224063</v>
-      </c>
-      <c r="E62">
-        <v>37149.542218170733</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>2016</v>
-      </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63">
-        <v>6768808.4645005623</v>
-      </c>
-      <c r="C63">
-        <v>59020789.950345531</v>
-      </c>
-      <c r="D63">
-        <v>49140185.475118063</v>
-      </c>
-      <c r="E63">
-        <v>738134549.02570128</v>
-      </c>
-      <c r="F63">
-        <v>248796098.87391201</v>
-      </c>
-      <c r="G63">
-        <v>2016</v>
-      </c>
-      <c r="H63" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64">
-        <v>222900.62651999999</v>
-      </c>
-      <c r="C64">
-        <v>68820568.438050002</v>
-      </c>
-      <c r="D64">
-        <v>3718582.567425</v>
-      </c>
-      <c r="E64">
-        <v>94359836.376629978</v>
-      </c>
-      <c r="F64">
-        <v>82912603.239675</v>
-      </c>
-      <c r="G64">
-        <v>2016</v>
-      </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_em.xlsx
+++ b/data/sector_em.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3007E1-2D2E-4CB2-88A4-7ECA5F8E19C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365914D4-A8D3-4D84-AD07-D1F85911139E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21435" yWindow="5310" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,19 +552,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>45327.367763343354</v>
+        <v>45.327367763343354</v>
       </c>
       <c r="C2">
-        <v>2342649.3323795572</v>
+        <v>2342.6493323795571</v>
       </c>
       <c r="D2">
-        <v>4444244.4952763794</v>
+        <v>4444.244495276379</v>
       </c>
       <c r="E2">
-        <v>3904632.2831833754</v>
+        <v>3904.6322831833754</v>
       </c>
       <c r="F2">
-        <v>23945653.651074249</v>
+        <v>23945.653651074248</v>
       </c>
       <c r="G2">
         <v>2008</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>298005611.48948437</v>
+        <v>298005.61148948438</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -610,16 +610,16 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>7841526.9051182531</v>
+        <v>7841.5269051182531</v>
       </c>
       <c r="C4">
-        <v>8382021.8414492086</v>
+        <v>8382.0218414492083</v>
       </c>
       <c r="D4">
-        <v>806136393.65558147</v>
+        <v>806136.39365558152</v>
       </c>
       <c r="E4">
-        <v>20856298.319628973</v>
+        <v>20856.298319628972</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>367589.57792290905</v>
+        <v>367.58957792290903</v>
       </c>
       <c r="C5">
-        <v>1644603.8908217947</v>
+        <v>1644.6038908217947</v>
       </c>
       <c r="D5">
-        <v>24529642.594060794</v>
+        <v>24529.642594060795</v>
       </c>
       <c r="E5">
-        <v>99173759.333862975</v>
+        <v>99173.759333862981</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -668,19 +668,19 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2043401.8737914735</v>
+        <v>2078.1166788018318</v>
       </c>
       <c r="C6">
-        <v>12136537.529183866</v>
+        <v>52186.420539434373</v>
       </c>
       <c r="D6">
-        <v>59059852.54690282</v>
+        <v>60063.204501994282</v>
       </c>
       <c r="E6">
-        <v>835405928.4123764</v>
+        <v>846146.13202739961</v>
       </c>
       <c r="F6">
-        <v>272204032.59200138</v>
+        <v>276828.4337123406</v>
       </c>
       <c r="G6">
         <v>2008</v>
@@ -697,19 +697,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1195911.7684717106</v>
+        <v>1195.9117684717107</v>
       </c>
       <c r="C7">
-        <v>32401955.502437882</v>
+        <v>32401.955502437882</v>
       </c>
       <c r="D7">
-        <v>2285963.0593592757</v>
+        <v>2285.9630593592756</v>
       </c>
       <c r="E7">
-        <v>90782712.785193607</v>
+        <v>90782.712785193609</v>
       </c>
       <c r="F7">
-        <v>122182020.16093814</v>
+        <v>122182.02016093815</v>
       </c>
       <c r="G7">
         <v>2008</v>
@@ -726,19 +726,19 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>29670.616885047122</v>
+        <v>29.670616885047121</v>
       </c>
       <c r="C8">
-        <v>2813216.8405159363</v>
+        <v>2813.2168405159364</v>
       </c>
       <c r="D8">
-        <v>5157253.6269036178</v>
+        <v>5157.2536269036182</v>
       </c>
       <c r="E8">
-        <v>2862842.9936057087</v>
+        <v>2862.8429936057087</v>
       </c>
       <c r="F8">
-        <v>23870019.991890755</v>
+        <v>23870.019991890753</v>
       </c>
       <c r="G8">
         <v>2009</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>772505.90274253627</v>
+        <v>772.50590274253625</v>
       </c>
       <c r="D9">
-        <v>334726572.61932623</v>
+        <v>334726.57261932624</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>7636040.2764753737</v>
+        <v>7636.0402764753735</v>
       </c>
       <c r="C10">
-        <v>13364966.899350449</v>
+        <v>13364.966899350449</v>
       </c>
       <c r="D10">
-        <v>1232736867.831825</v>
+        <v>1232736.867831825</v>
       </c>
       <c r="E10">
-        <v>13016317.082331477</v>
+        <v>13016.317082331476</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>26748.634619266562</v>
+        <v>26.748634619266561</v>
       </c>
       <c r="C11">
-        <v>390412.307168208</v>
+        <v>390.41230716820803</v>
       </c>
       <c r="D11">
-        <v>23308626.201659951</v>
+        <v>23308.62620165995</v>
       </c>
       <c r="E11">
-        <v>20577391.19350734</v>
+        <v>20577.391193507341</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1777970.3942422871</v>
+        <v>1803.3109335033512</v>
       </c>
       <c r="C12">
-        <v>61258981.545449063</v>
+        <v>62648.468813893713</v>
       </c>
       <c r="D12">
-        <v>67211583.815953061</v>
+        <v>68169.517527336546</v>
       </c>
       <c r="E12">
-        <v>896620647.24220788</v>
+        <v>908000.67435943347</v>
       </c>
       <c r="F12">
-        <v>320496493.14240265</v>
+        <v>325064.37233420985</v>
       </c>
       <c r="G12">
         <v>2009</v>
@@ -871,19 +871,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>659376.05322405964</v>
+        <v>659.37605322405966</v>
       </c>
       <c r="C13">
-        <v>32693309.822694551</v>
+        <v>32693.309822694551</v>
       </c>
       <c r="D13">
-        <v>839312.70611965936</v>
+        <v>839.31270611965931</v>
       </c>
       <c r="E13">
-        <v>80076733.924832329</v>
+        <v>80076.733924832326</v>
       </c>
       <c r="F13">
-        <v>116941916.63679424</v>
+        <v>116941.91663679424</v>
       </c>
       <c r="G13">
         <v>2009</v>
@@ -900,19 +900,19 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>39763.038613604047</v>
+        <v>39.763038613604046</v>
       </c>
       <c r="C14">
-        <v>5524786.7105077608</v>
+        <v>5524.7867105077612</v>
       </c>
       <c r="D14">
-        <v>4895930.4378837803</v>
+        <v>4895.9304378837805</v>
       </c>
       <c r="E14">
-        <v>28331207.100232877</v>
+        <v>28331.207100232878</v>
       </c>
       <c r="F14">
-        <v>-1796686.1801824167</v>
+        <v>-1796.6861801824166</v>
       </c>
       <c r="G14">
         <v>2010</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>812762.5885705878</v>
+        <v>812.76258857058781</v>
       </c>
       <c r="D15">
-        <v>334691213.0232895</v>
+        <v>334691.21302328951</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>3487629.9584576981</v>
+        <v>3487.6299584576982</v>
       </c>
       <c r="C16">
-        <v>6118291.4632825619</v>
+        <v>6118.2914632825623</v>
       </c>
       <c r="D16">
-        <v>1098789854.6242812</v>
+        <v>1098789.8546242812</v>
       </c>
       <c r="E16">
-        <v>23435771.565896288</v>
+        <v>23435.771565896288</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>479294.94956247584</v>
+        <v>479.29494956247584</v>
       </c>
       <c r="C17">
-        <v>2228539.0856437441</v>
+        <v>2228.5390856437439</v>
       </c>
       <c r="D17">
-        <v>654386.47605724458</v>
+        <v>654.38647605724464</v>
       </c>
       <c r="E17">
-        <v>67791198.362305447</v>
+        <v>67791.198362305455</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>1153543.6754043738</v>
+        <v>1169.7558440750684</v>
       </c>
       <c r="C18">
-        <v>42791282.896538235</v>
+        <v>43713.774514764933</v>
       </c>
       <c r="D18">
-        <v>50195967.435391277</v>
+        <v>50901.382704009651</v>
       </c>
       <c r="E18">
-        <v>631849332.90708315</v>
+        <v>639709.08353080787</v>
       </c>
       <c r="F18">
-        <v>231843829.863581</v>
+        <v>235102.21648140065</v>
       </c>
       <c r="G18">
         <v>2010</v>
@@ -1045,19 +1045,19 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>369065.53972530004</v>
+        <v>369.06553972530003</v>
       </c>
       <c r="C19">
-        <v>32751927.985182129</v>
+        <v>32751.92798518213</v>
       </c>
       <c r="D19">
-        <v>930348.45998028014</v>
+        <v>930.34845998028015</v>
       </c>
       <c r="E19">
-        <v>92245764.450736746</v>
+        <v>92245.764450736751</v>
       </c>
       <c r="F19">
-        <v>130594048.71845806</v>
+        <v>130594.04871845806</v>
       </c>
       <c r="G19">
         <v>2010</v>
@@ -1074,19 +1074,19 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>18138.493926302042</v>
+        <v>18.138493926302043</v>
       </c>
       <c r="C20">
-        <v>6618916.106099043</v>
+        <v>6618.9161060990427</v>
       </c>
       <c r="D20">
-        <v>4502160.5409335243</v>
+        <v>4502.1605409335243</v>
       </c>
       <c r="E20">
-        <v>24308414.821729943</v>
+        <v>24308.414821729944</v>
       </c>
       <c r="F20">
-        <v>83253.045734388725</v>
+        <v>83.253045734388721</v>
       </c>
       <c r="G20">
         <v>2011</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>633664.48630029347</v>
+        <v>633.66448630029345</v>
       </c>
       <c r="D21">
-        <v>466184240.10340893</v>
+        <v>466184.24010340893</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>7641636.6707406901</v>
+        <v>7641.6366707406896</v>
       </c>
       <c r="C22">
-        <v>7128409.9417829309</v>
+        <v>7128.4099417829311</v>
       </c>
       <c r="D22">
-        <v>1267847092.7956281</v>
+        <v>1267847.0927956281</v>
       </c>
       <c r="E22">
-        <v>7218841.9816865167</v>
+        <v>7218.8419816865171</v>
       </c>
       <c r="F22">
-        <v>8757188.1740037836</v>
+        <v>8757.1881740037843</v>
       </c>
       <c r="G22">
         <v>2011</v>
@@ -1161,16 +1161,16 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>310561.59360596206</v>
+        <v>310.56159360596206</v>
       </c>
       <c r="C23">
-        <v>4347663.6515783332</v>
+        <v>4347.663651578333</v>
       </c>
       <c r="D23">
-        <v>4773.8303336995205</v>
+        <v>4.7738303336995207</v>
       </c>
       <c r="E23">
-        <v>49674952.556142434</v>
+        <v>49674.952556142438</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>1235129.4846890722</v>
+        <v>1249.0488727049562</v>
       </c>
       <c r="C24">
-        <v>54145931.661618099</v>
+        <v>55109.23697677561</v>
       </c>
       <c r="D24">
-        <v>52201254.224082127</v>
+        <v>52789.490835078155</v>
       </c>
       <c r="E24">
-        <v>705849405.55756462</v>
+        <v>713018.29052547493</v>
       </c>
       <c r="F24">
-        <v>257327049.36847311</v>
+        <v>260227.01661202405</v>
       </c>
       <c r="G24">
         <v>2011</v>
@@ -1219,19 +1219,19 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>418007.99705472722</v>
+        <v>418.00799705472724</v>
       </c>
       <c r="C25">
-        <v>18113423.22426131</v>
+        <v>18113.423224261311</v>
       </c>
       <c r="D25">
-        <v>5302078.083866125</v>
+        <v>5302.0780838661249</v>
       </c>
       <c r="E25">
-        <v>101365598.40814474</v>
+        <v>101365.59840814474</v>
       </c>
       <c r="F25">
-        <v>105479239.14290832</v>
+        <v>105479.23914290832</v>
       </c>
       <c r="G25">
         <v>2011</v>
@@ -1248,19 +1248,19 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>5378.5612490698804</v>
+        <v>5.3785612490698806</v>
       </c>
       <c r="C26">
-        <v>2125771.1135948822</v>
+        <v>2125.7711135948821</v>
       </c>
       <c r="D26">
-        <v>4717453.9273156142</v>
+        <v>4717.4539273156142</v>
       </c>
       <c r="E26">
-        <v>25830425.745031904</v>
+        <v>25830.425745031906</v>
       </c>
       <c r="F26">
-        <v>6611790.1655343007</v>
+        <v>6611.7901655343012</v>
       </c>
       <c r="G26">
         <v>2012</v>
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>107896.01847671057</v>
+        <v>107.89601847671057</v>
       </c>
       <c r="D27">
-        <v>376563864.0469625</v>
+        <v>376563.86404696252</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>11441855.469374521</v>
+        <v>11441.855469374521</v>
       </c>
       <c r="C28">
-        <v>1184595.025942361</v>
+        <v>1184.595025942361</v>
       </c>
       <c r="D28">
-        <v>1050778184.3143939</v>
+        <v>1050778.1843143939</v>
       </c>
       <c r="E28">
-        <v>5998843.9037915263</v>
+        <v>5998.8439037915259</v>
       </c>
       <c r="F28">
-        <v>8004820.879146832</v>
+        <v>8004.8208791468323</v>
       </c>
       <c r="G28">
         <v>2012</v>
@@ -1335,16 +1335,16 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <v>404221.07402185764</v>
+        <v>404.22107402185765</v>
       </c>
       <c r="C29">
-        <v>2787810.1337552834</v>
+        <v>2787.8101337552835</v>
       </c>
       <c r="D29">
-        <v>81.223238388959999</v>
+        <v>8.1223238388959992E-2</v>
       </c>
       <c r="E29">
-        <v>32776174.62256569</v>
+        <v>32776.17462256569</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>2868206.0207515825</v>
+        <v>2916.8914583646119</v>
       </c>
       <c r="C30">
-        <v>45562127.491439112</v>
+        <v>46793.473151612277</v>
       </c>
       <c r="D30">
-        <v>50212154.093444489</v>
+        <v>51064.409729284693</v>
       </c>
       <c r="E30">
-        <v>756805505.34074056</v>
+        <v>768912.27965256094</v>
       </c>
       <c r="F30">
-        <v>258968002.89138633</v>
+        <v>263363.77169506374</v>
       </c>
       <c r="G30">
         <v>2012</v>
@@ -1393,19 +1393,19 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>405099.37315314729</v>
+        <v>405.09937315314727</v>
       </c>
       <c r="C31">
-        <v>49912757.158891894</v>
+        <v>49912.757158891895</v>
       </c>
       <c r="D31">
-        <v>5115759.6075248532</v>
+        <v>5115.759607524853</v>
       </c>
       <c r="E31">
-        <v>109124860.16264054</v>
+        <v>109124.86016264054</v>
       </c>
       <c r="F31">
-        <v>102148348.69214721</v>
+        <v>102148.34869214721</v>
       </c>
       <c r="G31">
         <v>2012</v>
@@ -1422,19 +1422,19 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>7143.356305429561</v>
+        <v>7.1433563054295606</v>
       </c>
       <c r="C32">
-        <v>1569068.2546402896</v>
+        <v>1569.0682546402895</v>
       </c>
       <c r="D32">
-        <v>4272516.5842247223</v>
+        <v>4272.5165842247225</v>
       </c>
       <c r="E32">
-        <v>1786059.6757394352</v>
+        <v>1786.0596757394353</v>
       </c>
       <c r="F32">
-        <v>21176144.514437694</v>
+        <v>21176.144514437696</v>
       </c>
       <c r="G32">
         <v>2013</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>171699785.98405433</v>
+        <v>171699.78598405432</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1480,19 +1480,19 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <v>3569199.3298371006</v>
+        <v>3569.1993298371008</v>
       </c>
       <c r="C34">
-        <v>381064.15169546724</v>
+        <v>381.06415169546722</v>
       </c>
       <c r="D34">
-        <v>508239382.70902908</v>
+        <v>508239.38270902907</v>
       </c>
       <c r="E34">
-        <v>1461600.0892970208</v>
+        <v>1461.6000892970208</v>
       </c>
       <c r="F34">
-        <v>1130754.3976794719</v>
+        <v>1130.7543976794718</v>
       </c>
       <c r="G34">
         <v>2013</v>
@@ -1509,19 +1509,19 @@
         <v>11</v>
       </c>
       <c r="B35">
-        <v>222005.81549021986</v>
+        <v>222.00581549021985</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>750348.13655060495</v>
+        <v>750.34813655060498</v>
       </c>
       <c r="E35">
-        <v>85398.435119910238</v>
+        <v>85.398435119910232</v>
       </c>
       <c r="F35">
-        <v>157.03699385088001</v>
+        <v>0.15703699385088002</v>
       </c>
       <c r="G35">
         <v>2013</v>
@@ -1538,19 +1538,19 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <v>3463650.5294866096</v>
+        <v>3529.7996107712593</v>
       </c>
       <c r="C36">
-        <v>31486148.595019054</v>
+        <v>32437.410849458109</v>
       </c>
       <c r="D36">
-        <v>45291959.804384843</v>
+        <v>46156.910894834546</v>
       </c>
       <c r="E36">
-        <v>656079711.61663151</v>
+        <v>668002.15464937512</v>
       </c>
       <c r="F36">
-        <v>218227555.32131472</v>
+        <v>222395.28303304772</v>
       </c>
       <c r="G36">
         <v>2013</v>
@@ -1567,19 +1567,19 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>340678.59297120007</v>
+        <v>340.67859297120009</v>
       </c>
       <c r="C37">
-        <v>17717658.64749144</v>
+        <v>17717.65864749144</v>
       </c>
       <c r="D37">
-        <v>5067486.2607652806</v>
+        <v>5067.4862607652803</v>
       </c>
       <c r="E37">
-        <v>100948888.82015789</v>
+        <v>100948.88882015788</v>
       </c>
       <c r="F37">
-        <v>92872218.734388739</v>
+        <v>92872.218734388734</v>
       </c>
       <c r="G37">
         <v>2013</v>
@@ -1596,19 +1596,19 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>7564.2367053837615</v>
+        <v>7.5642367053837614</v>
       </c>
       <c r="C38">
-        <v>1192058.1054785568</v>
+        <v>1192.0581054785569</v>
       </c>
       <c r="D38">
-        <v>3468980.4325025077</v>
+        <v>3468.9804325025075</v>
       </c>
       <c r="E38">
-        <v>1663380.2957114058</v>
+        <v>1663.3802957114058</v>
       </c>
       <c r="F38">
-        <v>20880747.428762253</v>
+        <v>20880.747428762254</v>
       </c>
       <c r="G38">
         <v>2014</v>
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>176325680.76670891</v>
+        <v>176325.68076670892</v>
       </c>
       <c r="E39">
-        <v>9.7572362469120026</v>
+        <v>9.757236246912002E-3</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>26</v>
       </c>
       <c r="B40">
-        <v>4253788.4538872931</v>
+        <v>4253.7884538872931</v>
       </c>
       <c r="C40">
-        <v>726956.98560228746</v>
+        <v>726.95698560228743</v>
       </c>
       <c r="D40">
-        <v>537317867.19307554</v>
+        <v>537317.8671930756</v>
       </c>
       <c r="E40">
-        <v>1043222.1441860988</v>
+        <v>1043.2221441860988</v>
       </c>
       <c r="F40">
-        <v>1174377.3991435694</v>
+        <v>1174.3773991435694</v>
       </c>
       <c r="G40">
         <v>2014</v>
@@ -1683,16 +1683,16 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>193883.10717475813</v>
+        <v>193.88310717475812</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1709906.374355458</v>
+        <v>1709.906374355458</v>
       </c>
       <c r="E41">
-        <v>560571.39045103686</v>
+        <v>560.5713904510369</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>3312252.791274251</v>
+        <v>3380.1778676563481</v>
       </c>
       <c r="C42">
-        <v>29186646.045279562</v>
+        <v>29851.454495891328</v>
       </c>
       <c r="D42">
-        <v>38748157.191253759</v>
+        <v>39542.726604176445</v>
       </c>
       <c r="E42">
-        <v>642587881.36791265</v>
+        <v>655126.46368104091</v>
       </c>
       <c r="F42">
-        <v>208177152.07609141</v>
+        <v>212446.28545655898</v>
       </c>
       <c r="G42">
         <v>2014</v>
@@ -1741,19 +1741,19 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>318921.23697984003</v>
+        <v>318.92123697984005</v>
       </c>
       <c r="C43">
-        <v>70159699.500865921</v>
+        <v>70159.699500865914</v>
       </c>
       <c r="D43">
-        <v>5601293.0968896002</v>
+        <v>5601.2930968895998</v>
       </c>
       <c r="E43">
-        <v>96065573.908455417</v>
+        <v>96065.573908455422</v>
       </c>
       <c r="F43">
-        <v>101057264.56102464</v>
+        <v>101057.26456102464</v>
       </c>
       <c r="G43">
         <v>2014</v>
@@ -1770,19 +1770,19 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>5561.4265262913596</v>
+        <v>5.5614265262913598</v>
       </c>
       <c r="C44">
-        <v>1546047.5480745188</v>
+        <v>1546.0475480745188</v>
       </c>
       <c r="D44">
-        <v>3965593.1808374315</v>
+        <v>3965.5931808374316</v>
       </c>
       <c r="E44">
-        <v>1761155.1665559378</v>
+        <v>20084.044052636535</v>
       </c>
       <c r="F44">
-        <v>20084044.052636534</v>
+        <v>1761.1551665559377</v>
       </c>
       <c r="G44">
         <v>2015</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>173956979.90239388</v>
+        <v>173956.97990239388</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1828,19 +1828,19 @@
         <v>26</v>
       </c>
       <c r="B46">
-        <v>4375140.6371349888</v>
+        <v>4375.1406371349885</v>
       </c>
       <c r="C46">
-        <v>4961958.5888764476</v>
+        <v>4961.9585888764477</v>
       </c>
       <c r="D46">
-        <v>567522417.3328439</v>
+        <v>567522.41733284388</v>
       </c>
       <c r="E46">
-        <v>550067.56812831049</v>
+        <v>161.66437872903109</v>
       </c>
       <c r="F46">
-        <v>161664.37872903107</v>
+        <v>550.06756812831054</v>
       </c>
       <c r="G46">
         <v>2015</v>
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1474705.8630114712</v>
+        <v>1474.7058630114711</v>
       </c>
       <c r="D47">
-        <v>1573930.8129789464</v>
+        <v>1573.9308129789463</v>
       </c>
       <c r="E47">
-        <v>418648.31225444161</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>418.64831225444163</v>
       </c>
       <c r="G47">
         <v>2015</v>
@@ -1886,19 +1886,19 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>2346199.1839278159</v>
+        <v>2389.3519628603576</v>
       </c>
       <c r="C48">
-        <v>35191633.721611135</v>
+        <v>35881.074081673389</v>
       </c>
       <c r="D48">
-        <v>46475692.505467676</v>
+        <v>47330.502829400917</v>
       </c>
       <c r="E48">
-        <v>818085157.77881312</v>
+        <v>267927.78332392115</v>
       </c>
       <c r="F48">
-        <v>263088886.17382437</v>
+        <v>832464.57209277945</v>
       </c>
       <c r="G48">
         <v>2015</v>
@@ -1915,19 +1915,19 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>216589.41489240003</v>
+        <v>216.58941489240004</v>
       </c>
       <c r="C49">
-        <v>60773703.149016008</v>
+        <v>60773.703149016008</v>
       </c>
       <c r="D49">
-        <v>5914392.1413192004</v>
+        <v>5914.3921413192002</v>
       </c>
       <c r="E49">
-        <v>94941219.460705206</v>
+        <v>94754.652340946399</v>
       </c>
       <c r="F49">
-        <v>94754652.340946406</v>
+        <v>94941.219460705208</v>
       </c>
       <c r="G49">
         <v>2015</v>
@@ -1944,19 +1944,19 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>2351.1249928476004</v>
+        <v>2.3511249928476006</v>
       </c>
       <c r="C50">
-        <v>1938421.2831463034</v>
+        <v>1938.4212831463035</v>
       </c>
       <c r="D50">
-        <v>3499971.7430563755</v>
+        <v>3499.9717430563755</v>
       </c>
       <c r="E50">
-        <v>2781128.3382987385</v>
+        <v>2781.1283382987385</v>
       </c>
       <c r="F50">
-        <v>17596481.244617574</v>
+        <v>17596.481244617575</v>
       </c>
       <c r="G50">
         <v>2016</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>187282218.87051314</v>
+        <v>187282.21887051314</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>26</v>
       </c>
       <c r="B52">
-        <v>3031070.3571329182</v>
+        <v>3031.0703571329182</v>
       </c>
       <c r="C52">
-        <v>847677.97309557931</v>
+        <v>847.67797309557932</v>
       </c>
       <c r="D52">
-        <v>602188902.77116871</v>
+        <v>602188.90277116874</v>
       </c>
       <c r="E52">
-        <v>2762148.624953629</v>
+        <v>2762.1486249536288</v>
       </c>
       <c r="F52">
-        <v>56693.089155923029</v>
+        <v>56.693089155923026</v>
       </c>
       <c r="G52">
         <v>2016</v>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>186688.91126039473</v>
+        <v>186.68891126039472</v>
       </c>
       <c r="D53">
-        <v>1098845.6112240625</v>
+        <v>1098.8456112240624</v>
       </c>
       <c r="E53">
-        <v>37149.542218170725</v>
+        <v>37.149542218170723</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2060,19 +2060,19 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>6767254.5170968007</v>
+        <v>6893.7595690166072</v>
       </c>
       <c r="C54">
-        <v>34251665.102752164</v>
+        <v>35092.444140035172</v>
       </c>
       <c r="D54">
-        <v>49128904.130101442</v>
+        <v>50047.305315107864</v>
       </c>
       <c r="E54">
-        <v>763224605.78454638</v>
+        <v>776778.25287846569</v>
       </c>
       <c r="F54">
-        <v>248738981.57565495</v>
+        <v>253388.83443684271</v>
       </c>
       <c r="G54">
         <v>2016</v>
@@ -2089,19 +2089,19 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>222900.62651999999</v>
+        <v>222.90062652</v>
       </c>
       <c r="C55">
-        <v>68664109.344435006</v>
+        <v>68664.109344435012</v>
       </c>
       <c r="D55">
-        <v>3718582.567425</v>
+        <v>3718.582567425</v>
       </c>
       <c r="E55">
-        <v>94516295.470245004</v>
+        <v>94516.295470245008</v>
       </c>
       <c r="F55">
-        <v>82912603.239675</v>
+        <v>82912.603239674994</v>
       </c>
       <c r="G55">
         <v>2016</v>
@@ -2118,19 +2118,19 @@
         <v>9</v>
       </c>
       <c r="B56">
-        <v>2307.5856411282002</v>
+        <v>2.3075856411282003</v>
       </c>
       <c r="C56">
-        <v>1132139.2496423186</v>
+        <v>1132.1392496423186</v>
       </c>
       <c r="D56">
-        <v>3009149.7285001324</v>
+        <v>3009.1497285001324</v>
       </c>
       <c r="E56">
-        <v>1774057.3277821203</v>
+        <v>1774.0573277821204</v>
       </c>
       <c r="F56">
-        <v>15965317.166555077</v>
+        <v>15965.317166555076</v>
       </c>
       <c r="G56">
         <v>2017</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>174126527.03639153</v>
+        <v>174126.52703639152</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2176,19 +2176,19 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <v>4065497.7203092691</v>
+        <v>4065.497720309269</v>
       </c>
       <c r="C58">
-        <v>862533.64820476412</v>
+        <v>862.53364820476418</v>
       </c>
       <c r="D58">
-        <v>592435102.44499004</v>
+        <v>592435.10244499007</v>
       </c>
       <c r="E58">
-        <v>444181.05923404981</v>
+        <v>444.18105923404983</v>
       </c>
       <c r="F58">
-        <v>101592.89259734603</v>
+        <v>101.59289259734602</v>
       </c>
       <c r="G58">
         <v>2017</v>
@@ -2205,16 +2205,16 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>157.03699385087998</v>
+        <v>0.15703699385087999</v>
       </c>
       <c r="C59">
-        <v>908440.83074534824</v>
+        <v>908.44083074534819</v>
       </c>
       <c r="D59">
-        <v>2492416.2932036268</v>
+        <v>2492.4162932036265</v>
       </c>
       <c r="E59">
-        <v>49419.20100728736</v>
+        <v>49.419201007287363</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2234,19 +2234,19 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>4221857.7104334123</v>
+        <v>4224.7426067214083</v>
       </c>
       <c r="C60">
-        <v>42043612.480553262</v>
+        <v>42072.319737272745</v>
       </c>
       <c r="D60">
-        <v>91508137.473465338</v>
+        <v>91570.66717110679</v>
       </c>
       <c r="E60">
-        <v>910083246.36825383</v>
+        <v>909780.71563789621</v>
       </c>
       <c r="F60">
-        <v>304990829.08998048</v>
+        <v>305199.23661364947</v>
       </c>
       <c r="G60">
         <v>2017</v>
@@ -2263,19 +2263,19 @@
         <v>13</v>
       </c>
       <c r="B61">
-        <v>284412.62633850001</v>
+        <v>284.41262633849999</v>
       </c>
       <c r="C61">
-        <v>71801007.007652998</v>
+        <v>71801.007007652996</v>
       </c>
       <c r="D61">
-        <v>3514542.7631489998</v>
+        <v>3514.5427631489997</v>
       </c>
       <c r="E61">
-        <v>99213926.174154043</v>
+        <v>99213.926174154039</v>
       </c>
       <c r="F61">
-        <v>92607065.873090997</v>
+        <v>92607.065873090993</v>
       </c>
       <c r="G61">
         <v>2017</v>
